--- a/VirusComparison.xlsx
+++ b/VirusComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\s-files\LDW Strategy\Users\David Ly\Projects\Corona\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Ly\Documents\Programming\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1084525-10E1-47CA-B12F-4A04654ACB6C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE086CAA-F943-47F6-9F72-D64632A66B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="3210" windowWidth="26880" windowHeight="13695" xr2:uid="{F673E4EA-9B45-433D-BE89-7D7FA9743D01}"/>
+    <workbookView xWindow="-25350" yWindow="1320" windowWidth="22590" windowHeight="18645" xr2:uid="{F673E4EA-9B45-433D-BE89-7D7FA9743D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92214AE7-A748-4497-BD83-6ADD1148DB4D}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,19 +665,19 @@
         <v>2020</v>
       </c>
       <c r="C6" s="1">
-        <v>1590000</v>
+        <v>13550000</v>
       </c>
       <c r="D6" s="1">
-        <v>95400</v>
+        <v>584000</v>
       </c>
       <c r="E6" s="2">
-        <v>0.215</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G6" s="5">
-        <v>43930</v>
+        <v>44028</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>

--- a/VirusComparison.xlsx
+++ b/VirusComparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Ly\Documents\Programming\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE086CAA-F943-47F6-9F72-D64632A66B3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1287A4-2756-4C69-9CC2-E96F83084156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25350" yWindow="1320" windowWidth="22590" windowHeight="18645" xr2:uid="{F673E4EA-9B45-433D-BE89-7D7FA9743D01}"/>
+    <workbookView xWindow="58965" yWindow="1020" windowWidth="28800" windowHeight="15555" xr2:uid="{F673E4EA-9B45-433D-BE89-7D7FA9743D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,9 +115,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,11 +154,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,8 +182,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -497,14 +504,14 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -550,7 +557,7 @@
       <c r="B2" s="1">
         <v>1976</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="8">
         <v>33577</v>
       </c>
       <c r="D2" s="1">
@@ -579,7 +586,7 @@
       <c r="B3" s="1">
         <v>1998</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>513</v>
       </c>
       <c r="D3" s="1">
@@ -608,7 +615,7 @@
       <c r="B4" s="1">
         <v>2002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="8">
         <v>8098</v>
       </c>
       <c r="D4" s="1">
@@ -635,7 +642,7 @@
       <c r="B5" s="1">
         <v>2012</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="8">
         <v>2494</v>
       </c>
       <c r="D5" s="1">
@@ -664,20 +671,20 @@
       <c r="B6" s="1">
         <v>2020</v>
       </c>
-      <c r="C6" s="1">
-        <v>13550000</v>
+      <c r="C6" s="8">
+        <v>23420000</v>
       </c>
       <c r="D6" s="1">
-        <v>584000</v>
+        <v>809000</v>
       </c>
       <c r="E6" s="2">
-        <v>7.1999999999999995E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="F6" s="1">
         <v>188</v>
       </c>
       <c r="G6" s="5">
-        <v>44028</v>
+        <v>44067</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>21</v>
@@ -693,7 +700,7 @@
       <c r="B7" s="1">
         <v>1500</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="8">
         <v>35520883</v>
       </c>
       <c r="D7" s="6">
